--- a/распереление дат тестирование/graphic-test.xlsx
+++ b/распереление дат тестирование/graphic-test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mi\jupyterProjects\tom's work\распереление дат тестирование\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriali/JupyterProjects/tom's work/распереление дат тестирование/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC047FB8-C97A-4944-8569-DF6FF2FB7E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74791799-E08D-E34D-818C-D243FA915D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{1FBC3244-FC2C-49DA-9EE2-02C136ABAD5A}"/>
+    <workbookView xWindow="5140" yWindow="2000" windowWidth="24260" windowHeight="13140" xr2:uid="{1FBC3244-FC2C-49DA-9EE2-02C136ABAD5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>Пункт отгрузки</t>
   </si>
@@ -157,11 +157,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -487,83 +485,100 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A3:D6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>1779443</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>44723</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1779443</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44724</v>
+      </c>
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1779443</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44725</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/распереление дат тестирование/graphic-test.xlsx
+++ b/распереление дат тестирование/graphic-test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/valeriali/JupyterProjects/tom's work/распереление дат тестирование/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74791799-E08D-E34D-818C-D243FA915D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FECE17E-352E-AA42-9E09-F3D5DE7F5DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5140" yWindow="2000" windowWidth="24260" windowHeight="13140" xr2:uid="{1FBC3244-FC2C-49DA-9EE2-02C136ABAD5A}"/>
   </bookViews>
@@ -35,21 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
-    <t>Пункт отгрузки</t>
+    <t>ВНП</t>
   </si>
   <si>
-    <t>Код КССС</t>
+    <t>ПНОС</t>
   </si>
   <si>
-    <t>Дата_производства</t>
+    <t>Тюменский Филиал</t>
   </si>
   <si>
-    <t>Объем_фасовки, т</t>
+    <t>date</t>
   </si>
   <si>
-    <t>ВНП</t>
+    <t>code</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>area</t>
   </si>
 </sst>
 </file>
@@ -157,16 +163,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -482,103 +490,1739 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D9DD94-F517-4BC8-B01C-FD73135EBD46}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8">
-        <v>1779443</v>
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3148620</v>
       </c>
       <c r="C2" s="2">
-        <v>44723</v>
+        <v>44772</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
-        <v>1779443</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44724</v>
-      </c>
-      <c r="D3" s="3">
+        <v>3148630</v>
+      </c>
+      <c r="C3" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D3" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>19441</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D4" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>19191</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D5" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>19191</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>19194</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D7" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>19194</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1686043</v>
+      </c>
+      <c r="C9" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>3148621</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44773</v>
+      </c>
+      <c r="D10" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="8">
+        <v>3148631</v>
+      </c>
+      <c r="C11" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D11" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3148631</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>196256</v>
+      </c>
+      <c r="C13" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D13" s="10">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>19188</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D14" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>19442</v>
+      </c>
+      <c r="C15" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D15" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>19442</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>19195</v>
+      </c>
+      <c r="C17" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D17" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>19551</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>19551</v>
+      </c>
+      <c r="C19" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D19" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19443</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>19193</v>
+      </c>
+      <c r="C21" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D21" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6">
+        <v>19193</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="8">
+        <v>19196</v>
+      </c>
+      <c r="C23" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D23" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6">
+        <v>19447</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1779443</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44725</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>3165729</v>
+      </c>
+      <c r="C25" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1.6319999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6">
+        <v>3051180</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="8">
+        <v>3051180</v>
+      </c>
+      <c r="C27" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D27" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3051181</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="8">
+        <v>19492</v>
+      </c>
+      <c r="C29" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D29" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>19492</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D30" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <v>3051176</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>18475</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D32" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1552369</v>
+      </c>
+      <c r="C33" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D33" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1661970</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="8">
+        <v>19493</v>
+      </c>
+      <c r="C35" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D35" s="10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1662067</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3173839</v>
+      </c>
+      <c r="C37" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3148628</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D38" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="8">
+        <v>3148628</v>
+      </c>
+      <c r="C39" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D39" s="10">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6">
+        <v>3148633</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D40" s="3">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="8">
+        <v>3173841</v>
+      </c>
+      <c r="C41" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D41" s="10">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6">
+        <v>3415849</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D42" s="3">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1599892</v>
+      </c>
+      <c r="C43" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D43" s="10">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6">
+        <v>3201872</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D44" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="8">
+        <v>3201872</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D45" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6">
+        <v>3214738</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D46" s="3">
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="8">
+        <v>3148625</v>
+      </c>
+      <c r="C47" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D47" s="10">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6">
+        <v>3148640</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D48" s="3">
+        <v>39.65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="8">
+        <v>227349</v>
+      </c>
+      <c r="C49" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D49" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6">
+        <v>227323</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D50" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="8">
+        <v>3416025</v>
+      </c>
+      <c r="C51" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D51" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6">
+        <v>3416025</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D52" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2253</v>
+      </c>
+      <c r="C53" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D53" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6">
+        <v>19549</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D54" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="8">
+        <v>18467</v>
+      </c>
+      <c r="C55" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D55" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6">
+        <v>18477</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D56" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="8">
+        <v>18477</v>
+      </c>
+      <c r="C57" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D57" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6">
+        <v>3378118</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D58" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="8">
+        <v>13537</v>
+      </c>
+      <c r="C59" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D59" s="10">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="6">
+        <v>227266</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D60" s="3">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8">
+        <v>3201870</v>
+      </c>
+      <c r="C61" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D61" s="10">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44775</v>
+      </c>
+      <c r="D62" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C63" s="9">
+        <v>44776</v>
+      </c>
+      <c r="D63" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44777</v>
+      </c>
+      <c r="D64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C65" s="9">
+        <v>44778</v>
+      </c>
+      <c r="D65" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44779</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C67" s="9">
+        <v>44780</v>
+      </c>
+      <c r="D67" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44781</v>
+      </c>
+      <c r="D68" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C69" s="9">
+        <v>44782</v>
+      </c>
+      <c r="D69" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44783</v>
+      </c>
+      <c r="D70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C71" s="9">
+        <v>44784</v>
+      </c>
+      <c r="D71" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="6">
+        <v>11466</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44785</v>
+      </c>
+      <c r="D72" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="8">
+        <v>11466</v>
+      </c>
+      <c r="C73" s="9">
+        <v>44786</v>
+      </c>
+      <c r="D73" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="6">
+        <v>12937</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D74" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="8">
+        <v>3099319</v>
+      </c>
+      <c r="C75" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D75" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="6">
+        <v>3099319</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D76" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="8">
+        <v>211086</v>
+      </c>
+      <c r="C77" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D77" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="6">
+        <v>19491</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D78" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="8">
+        <v>19491</v>
+      </c>
+      <c r="C79" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D79" s="10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="6">
+        <v>157578</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D80" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="8">
+        <v>157578</v>
+      </c>
+      <c r="C81" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D81" s="10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="6">
+        <v>1968</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44773</v>
+      </c>
+      <c r="D82" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="8">
+        <v>3442674</v>
+      </c>
+      <c r="C83" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D83" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="6">
+        <v>3442674</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D84" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="8">
+        <v>3442674</v>
+      </c>
+      <c r="C85" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D85" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="6">
+        <v>3442674</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44773</v>
+      </c>
+      <c r="D86" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="8">
+        <v>3442674</v>
+      </c>
+      <c r="C87" s="9">
+        <v>44775</v>
+      </c>
+      <c r="D87" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" s="6">
+        <v>3442674</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44776</v>
+      </c>
+      <c r="D88" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="8">
+        <v>3442674</v>
+      </c>
+      <c r="C89" s="9">
+        <v>44777</v>
+      </c>
+      <c r="D89" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="6">
+        <v>3442674</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44778</v>
+      </c>
+      <c r="D90" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" s="8">
+        <v>3442674</v>
+      </c>
+      <c r="C91" s="9">
+        <v>44779</v>
+      </c>
+      <c r="D91" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="6">
+        <v>1532505</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44773</v>
+      </c>
+      <c r="D92" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B93" s="8">
+        <v>143156</v>
+      </c>
+      <c r="C93" s="9">
+        <v>44770</v>
+      </c>
+      <c r="D93" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="6">
+        <v>158305</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D94" s="3">
+        <v>20.001000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B95" s="8">
+        <v>3186387</v>
+      </c>
+      <c r="C95" s="9">
+        <v>44774</v>
+      </c>
+      <c r="D95" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="6">
+        <v>3187451</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="8">
+        <v>3187560</v>
+      </c>
+      <c r="C97" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D97" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="6">
+        <v>3186531</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D98" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B99" s="8">
+        <v>3052007</v>
+      </c>
+      <c r="C99" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D99" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="6">
+        <v>3052007</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D100" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="8">
+        <v>3052007</v>
+      </c>
+      <c r="C101" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D101" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B102" s="6">
+        <v>3052007</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44773</v>
+      </c>
+      <c r="D102" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="8">
+        <v>203936</v>
+      </c>
+      <c r="C103" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D103" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="6">
+        <v>203951</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D104" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="8">
+        <v>203951</v>
+      </c>
+      <c r="C105" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D105" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="6">
+        <v>203951</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D106" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="8">
+        <v>203951</v>
+      </c>
+      <c r="C107" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D107" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="6">
+        <v>203955</v>
+      </c>
+      <c r="C108" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D108" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="8">
+        <v>199904</v>
+      </c>
+      <c r="C109" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D109" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="6">
+        <v>199911</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D110" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="8">
+        <v>199911</v>
+      </c>
+      <c r="C111" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D111" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="6">
+        <v>199911</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D112" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="8">
+        <v>1483278</v>
+      </c>
+      <c r="C113" s="9">
+        <v>44772</v>
+      </c>
+      <c r="D113" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="6">
+        <v>3435822</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44771</v>
+      </c>
+      <c r="D114" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="8">
+        <v>3447871</v>
+      </c>
+      <c r="C115" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D115" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="6">
+        <v>3435821</v>
+      </c>
+      <c r="C116" s="2">
+        <v>44770</v>
+      </c>
+      <c r="D116" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="8">
+        <v>3435821</v>
+      </c>
+      <c r="C117" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D117" s="10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="6">
+        <v>132610</v>
+      </c>
+      <c r="C118" s="2">
+        <v>44772</v>
+      </c>
+      <c r="D118" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="8">
+        <v>132622</v>
+      </c>
+      <c r="C119" s="9">
+        <v>44769</v>
+      </c>
+      <c r="D119" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="6">
+        <v>143936</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D120" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="8">
+        <v>187432</v>
+      </c>
+      <c r="C121" s="9">
+        <v>44771</v>
+      </c>
+      <c r="D121" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="6">
+        <v>182679</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44769</v>
+      </c>
+      <c r="D122" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="8">
+        <v>227380</v>
+      </c>
+      <c r="C123" s="9">
+        <v>44773</v>
+      </c>
+      <c r="D123" s="10">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
